--- a/Put Portfolios/Today_TwoSigma.xlsx
+++ b/Put Portfolios/Today_TwoSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>575134.8335821443</v>
+        <v>538845.9218822675</v>
       </c>
       <c r="E2" t="n">
-        <v>-414301.8965481786</v>
+        <v>-447641.2727413817</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>506453.4071739675</v>
+        <v>475521.8465680529</v>
       </c>
       <c r="E3" t="n">
-        <v>-412309.2708041896</v>
+        <v>-442459.2928733982</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>439494.2505708018</v>
+        <v>414755.080105058</v>
       </c>
       <c r="E4" t="n">
-        <v>-408594.3752551894</v>
+        <v>-434720.0041541953</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>375122.8482692054</v>
+        <v>357170.4709093738</v>
       </c>
       <c r="E5" t="n">
-        <v>-402291.7254046197</v>
+        <v>-423798.5581676817</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>314301.9123624499</v>
+        <v>303336.5948047648</v>
       </c>
       <c r="E6" t="n">
-        <v>-392438.6091592093</v>
+        <v>-409126.3790900929</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>257976.0709076929</v>
+        <v>253717.0872180061</v>
       </c>
       <c r="E7" t="n">
-        <v>-378090.3984618004</v>
+        <v>-390239.8314946536</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>206949.319258566</v>
+        <v>208636.4116552921</v>
       </c>
       <c r="E8" t="n">
-        <v>-358443.0979587614</v>
+        <v>-366814.4518751699</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>161784.7956117067</v>
+        <v>168263.3241717049</v>
       </c>
       <c r="E9" t="n">
-        <v>-332933.5694534548</v>
+        <v>-338681.4841765592</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>122747.5778926216</v>
+        <v>132611.6336948451</v>
       </c>
       <c r="E10" t="n">
-        <v>-301296.7350203739</v>
+        <v>-305827.1194712211</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>89797.22774952221</v>
+        <v>101555.1607109248</v>
       </c>
       <c r="E11" t="n">
-        <v>-263573.0330113074</v>
+        <v>-268377.5372729435</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>62623.70929256949</v>
+        <v>74852.37254934995</v>
       </c>
       <c r="E12" t="n">
-        <v>-220072.4993160942</v>
+        <v>-226574.2702523205</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40712.06145768721</v>
+        <v>52175.92280844522</v>
       </c>
       <c r="E13" t="n">
-        <v>-171310.0949988106</v>
+        <v>-180744.6648110274</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>23418.85990609613</v>
+        <v>33142.91680076202</v>
       </c>
       <c r="E14" t="n">
-        <v>-117929.2443982357</v>
+        <v>-131271.6156365127</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10045.8530793129</v>
+        <v>17342.77554174747</v>
       </c>
       <c r="E15" t="n">
-        <v>-60628.19907285302</v>
+        <v>-78565.70171332944</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-99.00660585354848</v>
+        <v>4360.741818691562</v>
       </c>
       <c r="E16" t="n">
-        <v>-99.00660585354848</v>
+        <v>-23041.68025418749</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7657.673208087423</v>
+        <v>-6203.86850888432</v>
       </c>
       <c r="E17" t="n">
-        <v>63016.3789440785</v>
+        <v>34899.76460043449</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-13195.51828281829</v>
+        <v>-14724.74140731552</v>
       </c>
       <c r="E18" t="n">
-        <v>128152.5860215136</v>
+        <v>94884.94688420114</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-17189.75285304262</v>
+        <v>-21540.48114176465</v>
       </c>
       <c r="E19" t="n">
-        <v>194832.4036034552</v>
+        <v>156575.2623319499</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20029.00978566207</v>
+        <v>-26950.57479633205</v>
       </c>
       <c r="E20" t="n">
-        <v>262667.1988230016</v>
+        <v>219671.2238595804</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22020.19835508342</v>
+        <v>-31214.49814305264</v>
       </c>
       <c r="E21" t="n">
-        <v>331350.0624057462</v>
+        <v>283913.3556950576</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-23399.27996142067</v>
+        <v>-34553.07919616545</v>
       </c>
       <c r="E22" t="n">
-        <v>400645.0329515749</v>
+        <v>349080.8298241427</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-24343.43893217366</v>
+        <v>-37151.34043795722</v>
       </c>
       <c r="E23" t="n">
-        <v>470374.9261329878</v>
+        <v>414988.6237645487</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-24982.96761797026</v>
+        <v>-39162.18360184723</v>
       </c>
       <c r="E24" t="n">
-        <v>540409.4495993571</v>
+        <v>481483.8357828566</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-25411.90304322643</v>
+        <v>-40710.43146628518</v>
       </c>
       <c r="E25" t="n">
-        <v>610654.5663262669</v>
+        <v>548441.6431006165</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-25696.98782131086</v>
+        <v>-41896.8803583177</v>
       </c>
       <c r="E26" t="n">
-        <v>681043.5337003483</v>
+        <v>615761.2493907817</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-25884.88349574765</v>
+        <v>-42802.13515196566</v>
       </c>
       <c r="E27" t="n">
-        <v>751529.6901780774</v>
+        <v>683362.0497793318</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>599876.5821551586</v>
+        <v>607695.6627856608</v>
       </c>
       <c r="E2" t="n">
-        <v>-410045.3804830385</v>
+        <v>-451697.0584539053</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>556236.6704587264</v>
+        <v>568213.5372560885</v>
       </c>
       <c r="E3" t="n">
-        <v>-407252.0984949559</v>
+        <v>-447938.6647492097</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>513483.7407001608</v>
+        <v>529597.3826706253</v>
       </c>
       <c r="E4" t="n">
-        <v>-403571.8345690068</v>
+        <v>-443314.3001004048</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>471779.2067708632</v>
+        <v>491949.3131026085</v>
       </c>
       <c r="E5" t="n">
-        <v>-398843.1748137895</v>
+        <v>-437721.8504341536</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>431284.3714352235</v>
+        <v>455366.2364569795</v>
       </c>
       <c r="E6" t="n">
-        <v>-392904.8164649144</v>
+        <v>-431064.4078455147</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>392154.8438592897</v>
+        <v>419937.6182062718</v>
       </c>
       <c r="E7" t="n">
-        <v>-385601.1503563333</v>
+        <v>-423252.5068619543</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354535.250535171</v>
+        <v>385743.5955381594</v>
       </c>
       <c r="E8" t="n">
-        <v>-376787.5499959373</v>
+        <v>-414206.0102957988</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>318554.5688006492</v>
+        <v>352853.4932705666</v>
       </c>
       <c r="E9" t="n">
-        <v>-366335.0380459442</v>
+        <v>-403855.5933291234</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>284322.3301555915</v>
+        <v>321324.7642258813</v>
       </c>
       <c r="E10" t="n">
-        <v>-354134.0830064871</v>
+        <v>-392143.8031395409</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>251925.847400585</v>
+        <v>291202.3515961364</v>
       </c>
       <c r="E11" t="n">
-        <v>-340097.3720769789</v>
+        <v>-379025.6965350176</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>221428.527118242</v>
+        <v>262518.4502977154</v>
       </c>
       <c r="E12" t="n">
-        <v>-324161.498674807</v>
+        <v>-364469.0785991708</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>192869.2463477065</v>
+        <v>235292.6288695968</v>
       </c>
       <c r="E13" t="n">
-        <v>-306287.5857608277</v>
+        <v>-348454.3807930212</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>166262.7054486357</v>
+        <v>209532.2630564641</v>
       </c>
       <c r="E14" t="n">
-        <v>-286460.9329753837</v>
+        <v>-330974.2273718859</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>141600.6209995942</v>
+        <v>185233.2264097494</v>
       </c>
       <c r="E15" t="n">
-        <v>-264689.8237399104</v>
+        <v>-312032.7447843327</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>118853.593400919</v>
+        <v>162380.7813780343</v>
       </c>
       <c r="E16" t="n">
-        <v>-241003.6576540708</v>
+        <v>-291644.6705817797</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>97973.47198739101</v>
+        <v>140950.6156726198</v>
       </c>
       <c r="E17" t="n">
-        <v>-215450.585383084</v>
+        <v>-269834.3170529263</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>78896.04300797266</v>
+        <v>120909.9723937011</v>
       </c>
       <c r="E18" t="n">
-        <v>-188094.8206779875</v>
+        <v>-246634.441097577</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61543.87932093893</v>
+        <v>102218.8277415303</v>
       </c>
       <c r="E19" t="n">
-        <v>-159013.7906805064</v>
+        <v>-222085.0665154797</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>45829.21153588424</v>
+        <v>84831.07645618972</v>
       </c>
       <c r="E20" t="n">
-        <v>-128295.2647810463</v>
+        <v>-196232.2985665523</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>31656.70535663719</v>
+        <v>68695.69187865239</v>
       </c>
       <c r="E21" t="n">
-        <v>-96034.57727577855</v>
+        <v>-169127.1639098217</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>18926.05630368199</v>
+        <v>53757.83426977729</v>
       </c>
       <c r="E22" t="n">
-        <v>-62332.03264421893</v>
+        <v>-140824.5022844287</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7534.338698008707</v>
+        <v>39959.88743939927</v>
       </c>
       <c r="E23" t="n">
-        <v>-27290.5565653774</v>
+        <v>-111381.9298805388</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-2621.930730857324</v>
+        <v>27242.40960206173</v>
       </c>
       <c r="E24" t="n">
-        <v>8986.367690271378</v>
+        <v>-80858.88848360827</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-11645.03392542895</v>
+        <v>15544.98955287226</v>
       </c>
       <c r="E25" t="n">
-        <v>46396.45818021456</v>
+        <v>-49315.78929852976</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-19634.59987020446</v>
+        <v>4807.00368008545</v>
       </c>
       <c r="E26" t="n">
-        <v>84840.08591995387</v>
+        <v>-16813.25593704855</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-26686.44983498029</v>
+        <v>-5031.727011386677</v>
       </c>
       <c r="E27" t="n">
-        <v>124221.4296396928</v>
+        <v>16588.53260574732</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-32891.71956715052</v>
+        <v>-14030.37777126802</v>
       </c>
       <c r="E28" t="n">
-        <v>164449.3535920374</v>
+        <v>50830.40108013399</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-38336.23214587623</v>
+        <v>-22246.65453773088</v>
       </c>
       <c r="E29" t="n">
-        <v>205438.0346978265</v>
+        <v>85854.64354793912</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-43100.09153354663</v>
+        <v>-29736.41597330548</v>
       </c>
       <c r="E30" t="n">
-        <v>247107.3689946709</v>
+        <v>121605.4013466326</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-47257.46537103329</v>
+        <v>-36553.37604341482</v>
       </c>
       <c r="E31" t="n">
-        <v>289383.188841699</v>
+        <v>158028.9605107912</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50876.52577438014</v>
+        <v>-42748.87942522907</v>
       </c>
       <c r="E32" t="n">
-        <v>332197.322122867</v>
+        <v>195073.976363245</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-54019.51835132806</v>
+        <v>-48371.74174744114</v>
       </c>
       <c r="E33" t="n">
-        <v>375487.5232304339</v>
+        <v>232691.6332753009</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-56742.93197170734</v>
+        <v>-53468.1466652571</v>
       </c>
       <c r="E34" t="n">
-        <v>419197.3032945694</v>
+        <v>270835.7475917529</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-59097.74466514347</v>
+        <v>-58081.59200188779</v>
       </c>
       <c r="E35" t="n">
-        <v>463275.6842856481</v>
+        <v>309462.8214893903</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-61129.72411657298</v>
+        <v>-62252.87757901737</v>
       </c>
       <c r="E36" t="n">
-        <v>507676.8985187334</v>
+        <v>348532.0551465287</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-62879.76437977199</v>
+        <v>-66020.12786372936</v>
       </c>
       <c r="E37" t="n">
-        <v>552360.0519400493</v>
+        <v>388005.3240960847</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-64384.24348131477</v>
+        <v>-69418.84313621958</v>
       </c>
       <c r="E38" t="n">
-        <v>597288.7665230213</v>
+        <v>427847.1280578625</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-65675.38943891569</v>
+        <v>-72481.97349736748</v>
       </c>
       <c r="E39" t="n">
-        <v>642430.8142499352</v>
+        <v>468024.5169309826</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-66781.64480423927</v>
+        <v>-75240.0106609005</v>
       </c>
       <c r="E40" t="n">
-        <v>687757.7525691264</v>
+        <v>508506.9990017175</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-67728.02212693577</v>
+        <v>-77721.09309101214</v>
       </c>
       <c r="E41" t="n">
-        <v>733244.5689309448</v>
+        <v>549266.4358058741</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-68536.44471294073</v>
+        <v>-79951.12063763224</v>
       </c>
       <c r="E42" t="n">
-        <v>778869.3400294546</v>
+        <v>590276.9274935218</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-69226.06872201944</v>
+        <v>-81953.87537749513</v>
       </c>
       <c r="E43" t="n">
-        <v>824612.9097048906</v>
+        <v>631514.6919879271</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-69813.58403464155</v>
+        <v>-83751.1458828391</v>
       </c>
       <c r="E44" t="n">
-        <v>870458.5880767835</v>
+        <v>672957.9407168509</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-70313.49244144958</v>
+        <v>-85362.85260702873</v>
       </c>
       <c r="E45" t="n">
-        <v>916391.8733544901</v>
+        <v>714586.7532269293</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-70738.36259856717</v>
+        <v>-86807.17249612015</v>
       </c>
       <c r="E46" t="n">
-        <v>962400.1968818873</v>
+        <v>756382.9525721059</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-71099.06187903597</v>
+        <v>-88100.66130758324</v>
       </c>
       <c r="E47" t="n">
-        <v>1008472.691285933</v>
+        <v>798329.9829949109</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-71404.96576463307</v>
+        <v>-89258.37244357917</v>
       </c>
       <c r="E48" t="n">
-        <v>1054599.981084851</v>
+        <v>840412.791093183</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-71664.14579144266</v>
+        <v>-90293.97138889083</v>
       </c>
       <c r="E49" t="n">
-        <v>1100773.994742556</v>
+        <v>882617.7113821392</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-71883.53731280143</v>
+        <v>-91219.84508581128</v>
       </c>
       <c r="E50" t="n">
-        <v>1146987.796905712</v>
+        <v>924932.3569194868</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-72069.08849772325</v>
+        <v>-92047.20578352202</v>
       </c>
       <c r="E51" t="n">
-        <v>1193235.439405305</v>
+        <v>967345.5154560441</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-72225.89206187952</v>
+        <v>-92786.18907126103</v>
       </c>
       <c r="E52" t="n">
-        <v>1239511.829525664</v>
+        <v>1009847.051402573</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-72358.30124897351</v>
+        <v>-93445.94594655369</v>
       </c>
       <c r="E53" t="n">
-        <v>1285812.614023085</v>
+        <v>1052427.813761549</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-72470.03155750976</v>
+        <v>-94034.72888541289</v>
       </c>
       <c r="E54" t="n">
-        <v>1332134.077399063</v>
+        <v>1095079.550056957</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-72564.24965352475</v>
+        <v>-94559.97197406823</v>
       </c>
       <c r="E55" t="n">
-        <v>1378473.052987563</v>
+        <v>1137794.82620257</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-72643.65083367574</v>
+        <v>-95028.36523459342</v>
       </c>
       <c r="E56" t="n">
-        <v>1424826.845491927</v>
+        <v>1180566.952176313</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-72710.52631293776</v>
+        <v>-95445.92333253766</v>
       </c>
       <c r="E57" t="n">
-        <v>1471193.16369718</v>
+        <v>1223389.913312637</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-72766.82151322621</v>
+        <v>-95818.04889605175</v>
       </c>
       <c r="E58" t="n">
-        <v>1517570.062181406</v>
+        <v>1266258.306983391</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-72814.18642819574</v>
+        <v>-96149.59070520833</v>
       </c>
       <c r="E59" t="n">
-        <v>1563955.890950951</v>
+        <v>1309167.284408502</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-72854.01903882026</v>
+        <v>-96444.89702942442</v>
       </c>
       <c r="E60" t="n">
-        <v>1610349.252024841</v>
+        <v>1352112.497318554</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-72887.50265664879</v>
+        <v>-96707.8644018358</v>
       </c>
       <c r="E61" t="n">
-        <v>1656748.962091528</v>
+        <v>1395090.049180411</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-72915.63797864456</v>
+        <v>-96941.98212373382</v>
       </c>
       <c r="E62" t="n">
-        <v>1703154.020454047</v>
+        <v>1438096.450692781</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>927544.6422574915</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-378651.1897141229</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>891330.9294359968</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-378307.5044955499</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>855138.6913311702</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-377942.3445603092</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>818980.3970668995</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-377543.2407845123</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>782873.6785562295</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-377092.5612551146</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>746842.5236810454</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-376566.318090231</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>710918.4129281247</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-375933.0308030841</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>675141.2895235596</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-375152.7561675815</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>639560.2521563764</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-374176.3954946975</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>604233.8715178136</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-372945.3780931926</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>569230.0560693052</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-371391.7955016334</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>534625.4258738778</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-369439.0276569932</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>500504.1919402175</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-367002.863550586</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>466956.5777801811</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-363993.0796705548</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>434076.8554152171</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-360315.4039954513</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>401961.0963246489</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-355873.7650459518</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>370704.7564287265</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-350572.7069018068</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>340400.2220967717</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-344319.843193694</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>311134.4415987464</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-337028.2256516517</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>282986.754669453</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-328618.5145408774</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>256027.0139635488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-319020.8572067142</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230314.0685761986</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-308176.4045539968</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>205894.6539854301</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-296038.4211046977</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>182802.7070339971</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-282572.9700160632</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>161059.1008167407</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-267759.1781932521</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>140671.7739832455</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-251589.1069866797</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121636.2128870075</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-234067.2700428501</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>103936.2335950711</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-215209.8512947189</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>87545.00397332173</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-195043.6828764007</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>72426.24350791446</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-173605.0453017404</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>58535.53960971452</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-150938.3511598728</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>45821.72314331614</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-127094.7695862036</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34228.25204800007</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-102130.8426414521</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>23694.55942183921</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-76107.13722754539</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14157.33064202736</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-49086.96796728967</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5551.682418510757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-21135.21815073871</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-2187.775332800185</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7682.722138017913</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-9126.006592399424</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>37301.88891848623</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-15326.75068443932</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>67658.54286651392</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-20851.85802704781</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>98690.83356397298</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-25760.75578631006</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>130339.3338447783</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-30110.03570454975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>162547.4519666062</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-33953.15399800253</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>195261.731713221</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-37340.23169357668</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>228432.0520577144</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-40317.94297745477</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>262011.7388139039</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-42929.47893180261</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>295957.6008996236</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-45214.57431410936</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>330229.9035573844</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-47209.5856690617</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>364792.2902424996</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-48947.6099501738</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>399611.6640014551</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-50458.63387660802</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>434658.0381150884</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-51769.70538399954</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>469904.3646477645</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-52905.11968570609</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>505326.3483861255</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-53886.61359575639</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>540902.2525161428</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-54733.56284233379</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>576612.701309633</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-55463.1780971612</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>612440.4840948731</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-56090.69634693087</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>648370.363885171</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-56629.56503054306</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>684388.8932416264</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-57091.61705867467</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>720484.2392535623</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-57487.23542268912</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>756646.0189296155</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-57825.50659374457</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>792865.1457986275</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-58114.36231783908</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>829133.6881146007</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-58360.70973727384</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>865444.7387352333</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-58570.55002301344</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>901792.2964895613</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-58749.08589506583</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>938171.1586575765</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-58900.8185483788</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>974576.8240443312</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-59029.63459834555</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1011005.406034432</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-59138.88372058651</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1047453.554952258</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-59231.44769117473</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1083918.389021738</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-59309.80154198599</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1120397.433210994</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-59376.06753664691</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1156888.565256401</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-59432.06265008952</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1193389.968183026</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>365914.6386941247</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-548944.072568666</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>322847.2970783598</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-532489.0517079969</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>282673.9653694638</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-513140.0209404589</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>245477.3745111031</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-490814.2493223855</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>211283.5556308725</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-465485.7057261822</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>180066.2627949577</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-437180.6360856629</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>151753.4154761375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-405971.1209280491</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126234.7401127801</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-371967.4338149725</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>103369.8893540197</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-335309.9220972989</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>82996.45729658226</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-296160.9916783023</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>64937.4613741832</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-254697.6251242674</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49008.00694293525</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-211104.7170790812</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35020.97708612512</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-165569.3844594574</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22791.69207012128</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-118276.3069990272</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12141.55910778813</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-69404.07748492633</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2900.785464323506</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-19122.48865195693</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-5089.740062668988</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>32409.34829748459</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-11977.2765329112</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>85044.17430367639</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-17896.64682203485</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>138647.1664909868</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22970.12079640457</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>193096.0549930511</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-27307.65670711591</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>248280.8815587737</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31007.40513607539</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>304103.4956062483</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-34156.39432006495</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>360476.8688986928</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-36831.33006576671</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>417324.295629425</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-39099.45692596797</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>474578.5312456577</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-41019.43935635981</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>532180.9112917</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-42642.23199087226</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>590080.4811336214</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-44011.91691756513</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>648233.1586833626</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-45166.49298019967</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>706600.9450971622</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-46138.60781630415</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>765151.1927374917</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-46956.22774982356</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>823855.9352804063</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-47643.24397566271</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>882691.2815310011</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-48220.01589041175</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>941636.8720926861</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-48703.85410989026</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1000675.396349642</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-49109.44682217971</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1059792.166113786</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-49449.23378553225</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1118974.741626868</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-49733.7326037729</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1178212.605285061</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-49971.82198752231</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1237496.878377746</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-50170.98660997075</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1296820.076231731</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-50337.52794780965</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1356175.897370326</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-50476.74520503334</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1415559.042589537</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-50593.09008264159</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1474965.060188362</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-50690.29880506382</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1534390.213942374</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-50771.50446170681</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1593831.370762165</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-50839.33238129172</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1653285.905319014</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-50895.9809353345</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1712751.619241406</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>408804.069447331</v>
+        <v>321511.699680302</v>
       </c>
       <c r="E2" t="n">
-        <v>-262392.5516230738</v>
+        <v>-315858.6537961112</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>348594.0016849043</v>
+        <v>273404.1588883456</v>
       </c>
       <c r="E3" t="n">
-        <v>-253549.4690696151</v>
+        <v>-295725.2573850256</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>291634.7587811395</v>
+        <v>228600.994345948</v>
       </c>
       <c r="E4" t="n">
-        <v>-241455.5616574947</v>
+        <v>-272287.4847243811</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>238495.1608836931</v>
+        <v>187177.3445925485</v>
       </c>
       <c r="E5" t="n">
-        <v>-225542.0092390559</v>
+        <v>-245470.1972747384</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>189641.5727332157</v>
+        <v>149145.780294814</v>
       </c>
       <c r="E6" t="n">
-        <v>-205342.447073648</v>
+        <v>-215260.8243694309</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>145401.8239121175</v>
+        <v>114462.0489093109</v>
       </c>
       <c r="E7" t="n">
-        <v>-180529.0455788609</v>
+        <v>-181703.6185518919</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>105946.103745109</v>
+        <v>83032.78672768269</v>
       </c>
       <c r="E8" t="n">
-        <v>-150931.6154299842</v>
+        <v>-144891.943530478</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>71285.375856577</v>
+        <v>54724.30778061681</v>
       </c>
       <c r="E9" t="n">
-        <v>-116539.1930026309</v>
+        <v>-104959.4852745019</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41284.92549162071</v>
+        <v>29371.70967554162</v>
       </c>
       <c r="E10" t="n">
-        <v>-77486.49305170187</v>
+        <v>-62071.14617653499</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15688.82529693001</v>
+        <v>6787.700552695213</v>
       </c>
       <c r="E11" t="n">
-        <v>-34029.44293050729</v>
+        <v>-16414.21809633932</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5849.53738814153</v>
+        <v>-13229.27904829067</v>
       </c>
       <c r="E12" t="n">
-        <v>13485.34470030642</v>
+        <v>31809.73950571686</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-23735.40081141411</v>
+        <v>-30887.90929610608</v>
       </c>
       <c r="E13" t="n">
-        <v>64652.6315929191</v>
+        <v>82392.04646094351</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-38402.62073818972</v>
+        <v>-46397.956648124</v>
       </c>
       <c r="E14" t="n">
-        <v>119038.5619820288</v>
+        <v>135122.9363119677</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-50288.09594585816</v>
+        <v>-59965.38527225587</v>
       </c>
       <c r="E15" t="n">
-        <v>176206.2370902456</v>
+        <v>189796.4448908779</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-59811.83427780819</v>
+        <v>-71788.57170909151</v>
       </c>
       <c r="E16" t="n">
-        <v>235735.6490741808</v>
+        <v>246214.1956570843</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-67362.89621230209</v>
+        <v>-82055.52954663025</v>
       </c>
       <c r="E17" t="n">
-        <v>297237.7374555722</v>
+        <v>304188.1750225876</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-73290.76432303317</v>
+        <v>-90942.02140345666</v>
       </c>
       <c r="E18" t="n">
-        <v>360363.0196607264</v>
+        <v>363542.6203688033</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-77901.28061244806</v>
+        <v>-98610.42257701168</v>
       </c>
       <c r="E19" t="n">
-        <v>424805.6536871968</v>
+        <v>424115.1563982903</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-81456.12461276802</v>
+        <v>-105209.1998974118</v>
       </c>
       <c r="E20" t="n">
-        <v>490303.9600027621</v>
+        <v>485757.3162809322</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-84174.80929148958</v>
+        <v>-110872.876765311</v>
       </c>
       <c r="E21" t="n">
-        <v>556638.4256399258</v>
+        <v>548334.5766160752</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-86238.28455266163</v>
+        <v>-115722.3678720431</v>
       </c>
       <c r="E22" t="n">
-        <v>623628.100694639</v>
+        <v>611726.0227123853</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-87793.40500699129</v>
+        <v>-119865.5822457104</v>
       </c>
       <c r="E23" t="n">
-        <v>691126.1305561946</v>
+        <v>675823.7455417599</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-88957.6995635404</v>
+        <v>-123398.2092409897</v>
       </c>
       <c r="E24" t="n">
-        <v>759014.9863155306</v>
+        <v>740532.0557495226</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-89824.04944956565</v>
+        <v>-126404.6176588745</v>
       </c>
       <c r="E25" t="n">
-        <v>827201.7867453909</v>
+        <v>805766.58453468</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-90465.02462630349</v>
+        <v>-128958.8125640632</v>
       </c>
       <c r="E26" t="n">
-        <v>895613.9618845382</v>
+        <v>871453.3268325333</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-90936.74115469644</v>
+        <v>-131125.4071276881</v>
       </c>
       <c r="E27" t="n">
-        <v>964195.3956720304</v>
+        <v>937527.6694719505</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-91282.18449588385</v>
+        <v>-132960.5777794616</v>
       </c>
       <c r="E28" t="n">
-        <v>1032903.102646728</v>
+        <v>1003933.436023219</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-91533.99979597023</v>
+        <v>-134512.9800977477</v>
       </c>
       <c r="E29" t="n">
-        <v>1101704.437662527</v>
+        <v>1070621.970907975</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-91716.78501995497</v>
+        <v>-135824.6103019488</v>
       </c>
       <c r="E30" t="n">
-        <v>1170574.802754428</v>
+        <v>1137551.277906816</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-91848.94161610205</v>
+        <v>-136931.6031068706</v>
       </c>
       <c r="E31" t="n">
-        <v>1239495.796474166</v>
+        <v>1204685.222304936</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-91944.14491973745</v>
+        <v>-137864.9612519942</v>
       </c>
       <c r="E32" t="n">
-        <v>1308453.743486416</v>
+        <v>1271992.801362855</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-92012.49661418695</v>
+        <v>-138651.2154356334</v>
       </c>
       <c r="E33" t="n">
-        <v>1377438.542107851</v>
+        <v>1339447.484382258</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-92061.41722477147</v>
+        <v>-139313.0158626202</v>
       </c>
       <c r="E34" t="n">
-        <v>1446442.771813152</v>
+        <v>1407026.621158313</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-92096.32997186045</v>
+        <v>-139869.6583353603</v>
       </c>
       <c r="E35" t="n">
-        <v>1515461.009381949</v>
+        <v>1474710.915888615</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-92121.17980492077</v>
+        <v>-140337.5489412731</v>
       </c>
       <c r="E36" t="n">
-        <v>1584489.309864774</v>
+        <v>1542483.962485744</v>
       </c>
     </row>
   </sheetData>
